--- a/biology/Zoologie/Grande_Pseudobrève/Grande_Pseudobrève.xlsx
+++ b/biology/Zoologie/Grande_Pseudobrève/Grande_Pseudobrève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grande_Pseudobr%C3%A8ve</t>
+          <t>Grande_Pseudobrève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amalocichla sclateriana
-La Grande Pseudobrève[1] (Amalocichla sclateriana) est une espèce d'oiseaux de la famille des Petroicidae endémique de Nouvelle-Guinée.
+La Grande Pseudobrève (Amalocichla sclateriana) est une espèce d'oiseaux de la famille des Petroicidae endémique de Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grande_Pseudobr%C3%A8ve</t>
+          <t>Grande_Pseudobrève</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre en Indonésie et en Papouasie-Nouvelle-Guinée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre en Indonésie et en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grande_Pseudobr%C3%A8ve</t>
+          <t>Grande_Pseudobrève</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 juin 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 juin 2023) :
 Amalocichla sclateriana occidentalis Rand, 1940
 Amalocichla sclateriana sclateriana De Vis, 1892</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grande_Pseudobr%C3%A8ve</t>
+          <t>Grande_Pseudobrève</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amalocichla sclateriana De Vis, 1892[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grande Pseudobrève[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Amalocichla sclateriana De Vis, 1892.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grande Pseudobrève.
 </t>
         </is>
       </c>
